--- a/Titelblatt.xlsx
+++ b/Titelblatt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projekte\Mietpreisstrukturerhebung\99_Shiny_App\prepareExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszfea\GitHub\Shiny-Apps\MPE-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Napfgasse 6, 8022 Zürich</t>
   </si>
@@ -88,10 +88,6 @@
     <t>Raumeinheit Quartiergruppen</t>
   </si>
   <si>
-    <t xml:space="preserve">Da auf Stufe Stadtquartier keine Differenzierung der Mietpreise nach Gemeinnützigkeit möglich ist, in grösseren Quartieren hingegen schon, werden kleinere oder einseitig strukturierte Quartiere  deshalb zu Quartiergruppen zusammengefasst. Dazu wurden die Quartiere der Kreise 1, 2, 5 und 8 zusammengelegt. Ferner werden zehn weitere Quartiere zu Paaren vereinigt Fluntern und Hottingen, Hirslanden und Witikon, Alt-Wiedikon und Friesenberg, Werd und Langstrasse sowie Saatlen und Schwamendingen-Mitte. 
-</t>
-  </si>
-  <si>
     <t>Median (Zentralwert)</t>
   </si>
   <si>
@@ -111,6 +107,21 @@
   </si>
   <si>
     <t>Platzhalter: Titel der Tabelle</t>
+  </si>
+  <si>
+    <t>Total Wohnungen (Domain)</t>
+  </si>
+  <si>
+    <t>Anzahl Wohnungen in Sample 1 bzw. Sample 2</t>
+  </si>
+  <si>
+    <t>Samplegrösse für die betreffende Zelle pro Schicht 1 resp. Schicht 2: Anzahl Mietpreisinformationen, die vorliegen. Methodendokumentation unter: https://www.stadt-zuerich.ch/prd/de/index/statistik/themen/bauen-wohnen/mietpreise.html</t>
+  </si>
+  <si>
+    <t>Grundgesamtheit für die betreffende Zelle: Gesamtzahl der Wohnungen der betreffenden Kategorie (Ausprägung von Raumeinheit, Gliederung, Zimmerzahl und Art der Gemeinnützigkeit).</t>
+  </si>
+  <si>
+    <t>Da auf Stufe Stadtquartier keine Differenzierung der Mietpreise nach Gemeinnützigkeit möglich ist, in grösseren Quartieren hingegen schon, werden kleinere oder einseitig strukturierte Quartiere  deshalb zu Quartiergruppen zusammengefasst. Dazu wurden die Quartiere der Kreise 1, 2, 5 und 8 zusammengelegt. Ferner werden zehn weitere Quartiere zu Paaren vereinigt Fluntern und Hottingen, Hirslanden und Witikon, Alt-Wiedikon und Friesenberg, Werd und Langstrasse sowie Saatlen und Schwamendingen-Mitte.</t>
   </si>
 </sst>
 </file>
@@ -472,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -536,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -547,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -597,31 +608,47 @@
         <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Titelblatt.xlsx
+++ b/Titelblatt.xlsx
@@ -79,27 +79,12 @@
     <t>Zu den gemeinnützigen gehören zunächst alle Wohnungen, die im Besitz der Stadt oder von Genossenschaften, Vereinen oder Stiftungen sind und nach dem Grundsatz der Kostenmiete bewirtschaftet werden. Ferner gehören auch Wohnungen dazu, deren Eigentümerschaft als gemeinnützig im weiteren Sinne gilt und ihre Mietobjekte nicht ausschliesslich nach dem Prinzip der Kostenmiete vermietet (bestimmte Stiftungen, Vereine und Aktiengesellschaften). Mit der Kostenmiete werden die Schuldzinsen und die Verwaltungskosten beglichen, der Unterhalt und Werterhalt der Liegenschaften sowie die Rückstellungen zur Erneuerung sichergestellt. Mittel- bis langfristig bewirkt die Kostenmiete deutlich günstigere Mieten als bei vergleichbaren Objekten auf dem Wohnungsmarkt.</t>
   </si>
   <si>
-    <t>Raumeinheit Stadtquartiere</t>
-  </si>
-  <si>
-    <t>Für eine Stichprobenerhebung wie die MPE sind die Stadtquartiere zum Teil klein. Auf Stufe Stadtquartier ist deshalb keine Differenzierung der Mietpreise nach Gemeinnützigkeit möglich. Die Mietpreise können nur für den Gesamtwohnungsbestand ausgewiesen werden.</t>
-  </si>
-  <si>
-    <t>Raumeinheit Quartiergruppen</t>
-  </si>
-  <si>
     <t>Median (Zentralwert)</t>
   </si>
   <si>
-    <t>Der Median ist der Wert, der genau in der Mitte einer Datenreihe liegt, die nach der Größe geordnet ist. Aufgrund dieser zentralen Lage wird er auch Zentralwert genannt. Der Median halbiert die Datenreihe, sodass eine Hälfte der Daten unterhalb und die andere Hälfte oberhalb des Medians in der geordneten Reihe liegt.</t>
-  </si>
-  <si>
     <t>Konfidenzintervall</t>
   </si>
   <si>
-    <t>Die geschätzten Preise sind mit 95-%-Konfidenzintervallen unterlegt. Diese bezeichnen den Bereich, der bei unendlicher Wiederholung eines Zufallsexperiments mit einer Wahrscheinlichkeit von 95 Prozent den wahren Wert der Grundgesamtheit einschliesst. In der MPE liegen die 95-%-Konfidenzintervalle gesamtstädtisch ungefähr bei +/-2 Prozent der ausgewiesenen Medianpreise und Mittelwerte. Bei kleineren Raumeinheiten (z.B. Quartiere) sind die Unsicherheiten höher; die Konfidenzintervalle der ausgewiesenen Werte liegen im Bereich von 4 bis 8 Prozent und können unter Umständen bis gegen 20 Prozent steigen.</t>
-  </si>
-  <si>
     <t>Abfragetool MPE</t>
   </si>
   <si>
@@ -121,7 +106,22 @@
     <t>Grundgesamtheit für die betreffende Zelle: Gesamtzahl der Wohnungen der betreffenden Kategorie (Ausprägung von Raumeinheit, Gliederung, Zimmerzahl und Art der Gemeinnützigkeit).</t>
   </si>
   <si>
-    <t>Da auf Stufe Stadtquartier keine Differenzierung der Mietpreise nach Gemeinnützigkeit möglich ist, in grösseren Quartieren hingegen schon, werden kleinere oder einseitig strukturierte Quartiere  deshalb zu Quartiergruppen zusammengefasst. Dazu wurden die Quartiere der Kreise 1, 2, 5 und 8 zusammengelegt. Ferner werden zehn weitere Quartiere zu Paaren vereinigt Fluntern und Hottingen, Hirslanden und Witikon, Alt-Wiedikon und Friesenberg, Werd und Langstrasse sowie Saatlen und Schwamendingen-Mitte.</t>
+    <t>Filterung nach Bauträgerschaft</t>
+  </si>
+  <si>
+    <t>Da bei kleinen Stadtquartieren aufgrund von zu geringen Datenmengen keine Differenzierung der Mietpreise nach Bauträgerschaft (gemeinnützig oder nicht gemeinnützig) möglich ist, werden die Kreise 1, 2, 5 und 8 nicht in die einzelnen Quartiere aufgeteilt, sowie folgende Quartiergruppen gebildet: Fluntern und Hottingen, Hirslanden und Witikon, Alt-Wiedikon und Friesenberg, Werd und Langstrasse sowie Saatlen und Schwamendingen-Mitte.</t>
+  </si>
+  <si>
+    <t>Raumeinheit Quartiergruppe</t>
+  </si>
+  <si>
+    <t>Diese Raumeinheit wurde aufgrund der Filterung nach Bauträgerschaft gebildet. Siehe entsprechender Abschnitt.</t>
+  </si>
+  <si>
+    <t>Der Median ist der Wert, der die Mietpreise in zwei gleich grosse Hälften teilt, d.h. die eine Hälfte der Mietpreise kleiner als der Median, die andere Hälfte grösser.</t>
+  </si>
+  <si>
+    <t>Die geschätzten Preise sind mit 95-%-Konfidenzintervallen unterlegt. Diese bezeichnen den Bereich, der bei unendlicher Wiederholung eines Zufallsexperiments mit einer Wahrscheinlichkeit von 95 Prozent den wahren Wert der Grundgesamtheit einschliesst. In der MPE liegen die 95-%-Konfidenzintervalle gesamtstädtisch ungefähr bei 4 Prozent der ausgewiesenen Medianpreise und Mittelwerte (absolute Breite des Konfidenzintervalls geteilt durch Schätzwert). Bei kleineren Raumeinheiten (z.B. Quartiere) sind die Unsicherheiten höher; die Konfidenzintervalle der ausgewiesenen Werte liegen im Bereich von 4 bis 8 Prozent und können unter Umständen bis gegen 20 Prozent steigen.</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +561,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -597,58 +597,58 @@
     </row>
     <row r="4" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Titelblatt.xlsx
+++ b/Titelblatt.xlsx
@@ -88,9 +88,6 @@
     <t>Abfragetool MPE</t>
   </si>
   <si>
-    <t>Die Detaildaten der Mietpreiserhebung 2022 sind auf einem Abruftool verfügbar, das erreichbar ist unter: https://www.stadt-zuerich.ch/prd/de/index/statistik/themen/bauen-wohnen/mietpreise.html</t>
-  </si>
-  <si>
     <t>Platzhalter: Titel der Tabelle</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Anzahl Wohnungen in Sample 1 bzw. Sample 2</t>
   </si>
   <si>
-    <t>Samplegrösse für die betreffende Zelle pro Schicht 1 resp. Schicht 2: Anzahl Mietpreisinformationen, die vorliegen. Methodendokumentation unter: https://www.stadt-zuerich.ch/prd/de/index/statistik/themen/bauen-wohnen/mietpreise.html</t>
-  </si>
-  <si>
     <t>Grundgesamtheit für die betreffende Zelle: Gesamtzahl der Wohnungen der betreffenden Kategorie (Ausprägung von Raumeinheit, Gliederung, Zimmerzahl und Art der Gemeinnützigkeit).</t>
   </si>
   <si>
@@ -122,6 +116,12 @@
   </si>
   <si>
     <t>Die geschätzten Preise sind mit 95-%-Konfidenzintervallen unterlegt. Diese bezeichnen den Bereich, der bei unendlicher Wiederholung eines Zufallsexperiments mit einer Wahrscheinlichkeit von 95 Prozent den wahren Wert der Grundgesamtheit einschliesst. In der MPE liegen die 95-%-Konfidenzintervalle gesamtstädtisch ungefähr bei 4 Prozent der ausgewiesenen Medianpreise und Mittelwerte (absolute Breite des Konfidenzintervalls geteilt durch Schätzwert). Bei kleineren Raumeinheiten (z.B. Quartiere) sind die Unsicherheiten höher; die Konfidenzintervalle der ausgewiesenen Werte liegen im Bereich von 4 bis 8 Prozent und können unter Umständen bis gegen 20 Prozent steigen.</t>
+  </si>
+  <si>
+    <t>Samplegrösse für die betreffende Zelle pro Schicht 1 resp. Schicht 2: Anzahl Mietpreisinformationen, die vorliegen.</t>
+  </si>
+  <si>
+    <t>Die Detaildaten der Mietpreiserhebung 2022 sind auf einem Abruftool verfügbar, das erreichbar ist unter: https://www.stadt-zuerich.ch/prd/de/index/statistik/publikationen-angebote/datenbanken-anwendungen/mietpreiserhebung.html</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +561,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -597,18 +597,18 @@
     </row>
     <row r="4" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -624,23 +624,23 @@
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
